--- a/__SQL/CARTELASADD.xlsx
+++ b/__SQL/CARTELASADD.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\teka20\__SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xamp\htdocs\teka20\__SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E04A359-D6B3-4A41-9257-10B140DA4F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73250636-5C51-4D3B-9A23-2642D1B779BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4905" yWindow="698" windowWidth="11093" windowHeight="9532" xr2:uid="{B761D505-91EF-4D48-B6D1-19F64A73FCCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B761D505-91EF-4D48-B6D1-19F64A73FCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
-    <t xml:space="preserve">INSERT INTO `teka`.`cartela` (`id_company`, `car_nome`, `car_img`) VALUES ('1', </t>
-  </si>
-  <si>
     <t xml:space="preserve">, </t>
   </si>
   <si>
@@ -120,6 +118,9 @@
   </si>
   <si>
     <t>verão_suave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO `cartela` (`id_company`, `car_nome`, `car_img`) VALUES ('1', </t>
   </si>
 </sst>
 </file>
@@ -487,290 +488,290 @@
       <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.06640625" customWidth="1"/>
-    <col min="2" max="2" width="17.9296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="4"/>
+    <col min="4" max="4" width="25.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
